--- a/M3 data type dict.xlsx
+++ b/M3 data type dict.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexwilliams/Documents/Employ America - MIT Data Viewer/Ingestion Pipeline Refactor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexwilliams/Documents/Employ America - MIT Data Viewer/MIT App Working Folder/Last Working Folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5BACD5-21C4-C441-B525-106A96E54600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1295F27-0487-8A46-9B8B-1C9427CC4825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8300" windowWidth="28260" windowHeight="17440" xr2:uid="{15F125E2-608D-7E4D-972C-C8DC12EA0C27}"/>
+    <workbookView xWindow="42860" yWindow="5980" windowWidth="28260" windowHeight="17440" xr2:uid="{15F125E2-608D-7E4D-972C-C8DC12EA0C27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>data_type_code</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>Work in Process Inventories</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Thousands of Dollars</t>
+  </si>
+  <si>
+    <t>Ratio</t>
   </si>
 </sst>
 </file>
@@ -445,95 +454,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234CAA07-B22F-B249-96E6-EFB957873CE1}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
